--- a/database.xlsx
+++ b/database.xlsx
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="20" t="n">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="20" t="n">
         <v>1</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="20" t="n">
         <v>0</v>
